--- a/Output/Tables/Model 1c.xlsx
+++ b/Output/Tables/Model 1c.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,18 +411,18 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.74</v>
+        <v>1.912</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0756219277897171</t>
+          <t>0.0785632550862939</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.07815239278728524</v>
+        <v>0.07691966893576119</v>
       </c>
       <c r="E2">
-        <v>33608</v>
+        <v>32130</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="G2">
-        <v>1.611439313864916</v>
+        <v>1.785467144600673</v>
       </c>
       <c r="H2">
-        <v>1.868560686135084</v>
+        <v>2.038532855399327</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -446,18 +446,18 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.318</v>
+        <v>-0.325</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0756219277897171</t>
+          <t>0.0785632550862939</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.02307998937078407</v>
+        <v>0.02219912530737515</v>
       </c>
       <c r="E3">
-        <v>33608</v>
+        <v>32130</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -465,12 +465,257 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.3559665825149398</v>
+        <v>-0.3615175611306322</v>
       </c>
       <c r="H3">
-        <v>-0.2800334174850602</v>
+        <v>-0.2884824388693679</v>
       </c>
       <c r="I3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>0.065</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.0785632550862939</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.02741684820586976</v>
+      </c>
+      <c r="E4">
+        <v>32130</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Model 1c</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>0.01989928470134425</v>
+      </c>
+      <c r="H4">
+        <v>0.1101007152986558</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>educ</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.387</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0785632550862939</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.01456523292771531</v>
+      </c>
+      <c r="E5">
+        <v>32130</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Model 1c</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>0.3630401918339083</v>
+      </c>
+      <c r="H5">
+        <v>0.4109598081660917</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>polint</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.789</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.0785632550862939</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>0.01714843936538139</v>
+      </c>
+      <c r="E6">
+        <v>32130</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Model 1c</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>-0.8172091827560524</v>
+      </c>
+      <c r="H6">
+        <v>-0.7607908172439477</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sexMale</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.0785632550862939</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.009844321487365165</v>
+      </c>
+      <c r="E7">
+        <v>32130</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Model 1c</t>
+        </is>
+      </c>
+      <c r="G7">
+        <v>0.03380609115328431</v>
+      </c>
+      <c r="H7">
+        <v>0.06619390884671569</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>surveyevs2008</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>-0.139</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.0785632550862939</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>0.01264080065724252</v>
+      </c>
+      <c r="E8">
+        <v>32130</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Model 1c</t>
+        </is>
+      </c>
+      <c r="G8">
+        <v>-0.1597941170811639</v>
+      </c>
+      <c r="H8">
+        <v>-0.1182058829188361</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>surveywvs1994</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.247</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.0785632550862939</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.02088511705940227</v>
+      </c>
+      <c r="E9">
+        <v>32130</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Model 1c</t>
+        </is>
+      </c>
+      <c r="G9">
+        <v>-0.2813560175627167</v>
+      </c>
+      <c r="H9">
+        <v>-0.2126439824372833</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>surveywvs2005</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>0.304</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.0785632550862939</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0.01654853406312838</v>
+      </c>
+      <c r="E10">
+        <v>32130</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Model 1c</t>
+        </is>
+      </c>
+      <c r="G10">
+        <v>0.2767776614661538</v>
+      </c>
+      <c r="H10">
+        <v>0.3312223385338462</v>
+      </c>
+      <c r="I10">
         <v>12</v>
       </c>
     </row>
